--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Chojniczanka</t>
         </is>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.57</v>
+        <v>2.18</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.64</v>
+        <v>2.46</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:35</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.57</v>
+        <v>3.05</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>22/07/2023 17:59</t>
+          <t>22/07/2023 17:06</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Chojniczanka</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.18</v>
+        <v>2.49</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:35</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.05</v>
+        <v>2.64</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>22/07/2023 17:06</t>
+          <t>22/07/2023 17:36</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-chojniczanka/rc7er10t/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.49</v>
+        <v>2.57</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.39</v>
+        <v>2.64</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.26</v>
+        <v>3.24</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.41</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.64</v>
+        <v>2.57</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>22/07/2023 17:36</t>
+          <t>22/07/2023 17:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-sandecja-nowy-s/GUiPyHqO/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-stal-stalowa-wola/84hLxcUH/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.28</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.83</v>
+        <v>2.77</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.09</v>
+        <v>3.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.03</v>
+        <v>2.56</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,190 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/polonia-bytom-lks-lodz/noUOJctT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45189.625</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>2</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>19/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>20/09/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>19/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>20/09/2023 14:16</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>19/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>20/09/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-kotwica-kolobrzeg/xvapNBVN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45189.75</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>20/09/2023 17:08</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>20/09/2023 17:08</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>19/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>20/09/2023 17:08</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-pogon-siedlce/8MkGHkgo/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,48 +4184,48 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N41" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="P41" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S41" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P41" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R41" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T41" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
         <v>1</v>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,282 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-pogon-siedlce/8MkGHkgo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45191.70833333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>2</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Lech Poznan II</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>2</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>21/09/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>22/09/2023 16:50</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-lech-poznan/QuRUSzJq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45191.8125</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Chojniczanka</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>5</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:20</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:31</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>21/09/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:20</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/chojniczanka-stezyca/YsnjzJQ9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45191.83333333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>KKS Kalisz</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>3</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Hutnik Krakow</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>21/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:39</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>21/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:39</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>21/09/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>22/09/2023 19:39</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-hutnik-krakow/CY6PlIu3/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,14 +2789,14 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1.89</v>
+        <v>2.27</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.23</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.54</v>
+        <v>3.31</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 15:54</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.62</v>
+        <v>3.05</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.65</v>
+        <v>2.96</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>06/08/2023 16:50</t>
+          <t>06/08/2023 16:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.32</v>
+        <v>1.94</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.23</v>
+        <v>3.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.31</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>06/08/2023 15:54</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.05</v>
+        <v>3.62</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>06/08/2023 16:44</t>
+          <t>06/08/2023 16:50</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-sandecja-nowy-s/WITYiTZL/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-zaglebie/xdUUh9KF/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>13/08/2023 16:47</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>13/08/2023 10:12</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>13/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>13/08/2023 10:12</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 10:12</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ol. Grudziadz</t>
+          <t>Stezyca</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lech Poznan II</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.68</v>
+        <v>2.24</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.54</v>
+        <v>3.15</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.82</v>
+        <v>3.17</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 15:01</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.58</v>
+        <v>3.08</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>4.66</v>
+        <v>3.08</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>13/08/2023 15:37</t>
+          <t>13/08/2023 10:12</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/stezyca-polonia-bytom/tjCd78Z8/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Lech Poznan II</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.42</v>
+        <v>1.9</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.23</v>
+        <v>1.68</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.17</v>
+        <v>3.54</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.24</v>
+        <v>3.82</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.76</v>
+        <v>3.58</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>3.18</v>
+        <v>4.66</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 15:37</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/ol-grudziadz-lech-poznan/0fZ9q5s2/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.01</v>
+        <v>1.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.27</v>
+        <v>3.61</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.5</v>
+        <v>3.99</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.77</v>
+        <v>3.62</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Hutnik Krakow</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.77</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.61</v>
+        <v>3.08</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.28</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.99</v>
+        <v>3.09</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.62</v>
+        <v>2.56</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.77</v>
+        <v>1.83</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.12</v>
+        <v>3.6</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.09</v>
+        <v>4.09</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:58</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.42</v>
+        <v>3.27</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.6</v>
+        <v>3.34</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.09</v>
+        <v>3.5</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.03</v>
+        <v>2.77</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:58</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-polonia-bytom/464LWO2K/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>2</v>
-      </c>
       <c r="J56" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,15 +5564,15 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,15 +5580,15 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,48 +5656,48 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N57" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
         <v>3.26</v>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S57" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P57" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T57" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,466 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/kks-kalisz-hutnik-krakow/CY6PlIu3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45192.625</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Zaglebie II</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Skra</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>22/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>23/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-skra-czestochowa/S4ofZxtG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Pogon Siedlce</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Kotwica Kolobrzeg</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:50</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-kotwica-kolobrzeg/OWv3XGAS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45192.75</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sandecja Nowy S.</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:44</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:44</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>22/09/2023 05:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:44</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stomil-olsztyn-sandecja-nowy-s/Ys8LkbQd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>S. Wola</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Polonia Bytom</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/stal-stalowa-wola-polonia-bytom/WxUxREmd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45193.73958333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LKS Lodz II</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Olimpia Elblag</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:39</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:32</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>23/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:32</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-olimpia-elblag/K2QYRfYk/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_division-2_2023-2024.xlsx
+++ b/2023/poland_division-2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>GKS Jastrzebie</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Stomil Olsztyn</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:49</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.23</v>
+        <v>3.17</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.47</v>
+        <v>3.24</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.06</v>
+        <v>2.76</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.71</v>
+        <v>3.18</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>13/08/2023 16:53</t>
+          <t>13/08/2023 16:47</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GKS Jastrzebie</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Stomil Olsztyn</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Hutnik Krakow</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.23</v>
+        <v>1.94</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 16:49</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.17</v>
+        <v>3.23</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.24</v>
+        <v>3.47</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.76</v>
+        <v>3.06</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.18</v>
+        <v>3.71</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>13/08/2023 16:47</t>
+          <t>13/08/2023 16:53</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-hutnik-krakow/lGF45n4L/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-stomil-olsztyn/6Xey0QRr/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Polonia Bytom</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.25</v>
+        <v>3.52</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:49</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.32</v>
+        <v>3.05</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>19/08/2023 08:42</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.35</v>
+        <v>3.29</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>19/08/2023 16:47</t>
+          <t>19/08/2023 16:58</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Polonia Bytom</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.31</v>
+        <v>3.26</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.52</v>
+        <v>3.25</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:49</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 08:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.29</v>
+        <v>3.35</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>19/08/2023 16:58</t>
+          <t>19/08/2023 16:47</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-polonia-bytom/prVrJ5YK/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/hutnik-krakow-pogon-siedlce/lGyzLR38/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Kotwica Kolobrzeg</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Stezyca</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Ol. Grudziadz</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.08</v>
+        <v>2.27</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.45</v>
+        <v>3.18</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.27</v>
+        <v>3.2</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 16:05</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.77</v>
+        <v>3.09</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.51</v>
+        <v>3.09</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>19/08/2023 17:46</t>
+          <t>19/08/2023 08:43</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Kotwica Kolobrzeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Stezyca</t>
+          <t>Ol. Grudziadz</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.27</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>2.08</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="P42" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>19/08/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="S42" t="inlineStr">
         <is>
           <t>19/08/2023 08:43</t>
         </is>
       </c>
-      <c r="P42" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>19/08/2023 16:05</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>19/08/2023 08:43</t>
-        </is>
-      </c>
       <c r="T42" t="n">
-        <v>3.09</v>
+        <v>3.51</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>19/08/2023 08:43</t>
+          <t>19/08/2023 17:46</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-stezyca/OYTnIPmR/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/kotwica-kolobrzeg-ol-grudziadz/KIUHC3Bl/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Wisla Pulawy</t>
+          <t>Zaglebie II</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Hutnik Krakow</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.04</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.61</v>
+        <v>3.27</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.28</v>
+        <v>3.34</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:54</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.99</v>
+        <v>3.5</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.62</v>
+        <v>2.77</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>26/08/2023 16:56</t>
+          <t>26/08/2023 16:30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Wisla Pulawy</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Hutnik Krakow</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.28</v>
+        <v>1.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.77</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,7 +5020,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.08</v>
+        <v>3.61</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.28</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>26/08/2023 16:55</t>
+          <t>26/08/2023 16:54</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.09</v>
+        <v>3.99</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.56</v>
+        <v>3.62</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/wisla-pulawy-hutnik-krakow/YLfiR2Qs/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Zaglebie II</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.01</v>
+        <v>2.28</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.44</v>
+        <v>2.77</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.27</v>
+        <v>3.08</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.34</v>
+        <v>3.12</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:55</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.5</v>
+        <v>3.09</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>26/08/2023 16:30</t>
+          <t>26/08/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/zaglebie-olimpia-elblag/QF5HX4mE/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/pogon-siedlce-sandecja-nowy-s/bT3PVrIQ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Olimpia Elblag</t>
+          <t>Sandecja Nowy S.</t>
         </is>
       </c>
       <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Wisla Pulawy</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
         <v>2</v>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>GKS Jastrzebie</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
       <c r="J56" t="n">
-        <v>2.08</v>
+        <v>3.1</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,48 +5564,48 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.49</v>
+        <v>2.77</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="N56" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>02/09/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
         <v>3.26</v>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>02/09/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S56" t="inlineStr">
         <is>
           <t>02/09/2023 13:42</t>
         </is>
       </c>
-      <c r="P56" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>02/09/2023 15:41</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>02/09/2023 13:42</t>
-        </is>
-      </c>
       <c r="T56" t="n">
-        <v>2.92</v>
+        <v>2.48</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>02/09/2023 15:41</t>
+          <t>02/09/2023 15:46</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
         </is>
       </c>
     </row>
@@ -5633,22 +5633,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Sandecja Nowy S.</t>
+          <t>Olimpia Elblag</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Wisla Pulawy</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>2</v>
-      </c>
       <c r="J57" t="n">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.77</v>
+        <v>2.49</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.26</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>2.21</v>
+        <v>3.32</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.48</v>
+        <v>2.92</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>02/09/2023 15:46</t>
+          <t>02/09/2023 15:41</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/division-2/sandecja-nowy-s-wisla-pulawy/bTuHLbfJ/</t>
+          <t>https://www.betexplorer.com/football/poland/division-2/olimpia-elblag-gks-jastrzebie/ldiSSF1n/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,98 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/division-2/lks-lodz-olimpia-elblag/K2QYRfYk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>division-2</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45194.84375</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>GKS Jastrzebie</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>3</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Ol. Grudziadz</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>24/09/2023 07:43</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>25/09/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>24/09/2023 07:43</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:00</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>24/09/2023 07:43</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:00</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/division-2/gks-jastrzebie-ol-grudziadz/6epbYdeM/</t>
         </is>
       </c>
     </row>
